--- a/xlsx/哲學家_intext.xlsx
+++ b/xlsx/哲學家_intext.xlsx
@@ -29,7 +29,7 @@
     <t>哲學</t>
   </si>
   <si>
-    <t>政策_政策_外交政策_哲學家</t>
+    <t>体育运动_体育运动_文化_哲學家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9F%A5%E8%AD%98</t>
